--- a/BackTest/2019-10-28 BackTest BTC.xlsx
+++ b/BackTest/2019-10-28 BackTest BTC.xlsx
@@ -451,7 +451,7 @@
         <v>113.27045497</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>120.22965497</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>112.7709909</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10782000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>90.61849090000004</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>76.75819090000005</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10766000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>99.13179090000004</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10761000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>96.24089090000004</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10769000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>80.29659090000004</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10765000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>74.23438261000004</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10753000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>96.17982099000004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10738000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>89.82559769000004</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10752000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>86.18759769000003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10747000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -852,10 +936,12 @@
       <c r="I14" t="n">
         <v>10740000</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -886,10 +972,14 @@
         <v>86.26729769000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10743000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -928,7 +1018,9 @@
       <c r="I16" t="n">
         <v>10742000</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -967,7 +1059,9 @@
       <c r="I17" t="n">
         <v>10745000</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1006,7 +1100,9 @@
       <c r="I18" t="n">
         <v>10735000</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1045,7 +1141,9 @@
       <c r="I19" t="n">
         <v>10725000</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1084,7 +1182,9 @@
       <c r="I20" t="n">
         <v>10718000</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1123,7 +1223,9 @@
       <c r="I21" t="n">
         <v>10710000</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1162,7 +1264,9 @@
       <c r="I22" t="n">
         <v>10732000</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1201,7 +1305,9 @@
       <c r="I23" t="n">
         <v>10725000</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,7 +1346,9 @@
       <c r="I24" t="n">
         <v>10720000</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1279,7 +1387,9 @@
       <c r="I25" t="n">
         <v>10721000</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1318,7 +1428,9 @@
       <c r="I26" t="n">
         <v>10720000</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1357,7 +1469,9 @@
       <c r="I27" t="n">
         <v>10731000</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1396,7 +1510,9 @@
       <c r="I28" t="n">
         <v>10740000</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1430,12 +1546,12 @@
         <v>119.70008448</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10752000</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1474,7 +1590,9 @@
       <c r="I30" t="n">
         <v>10752000</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1508,10 +1626,14 @@
         <v>111.41505985</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10769000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1545,10 +1667,14 @@
         <v>114.02130523</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10756000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1582,10 +1708,14 @@
         <v>112.6357438</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10759000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1624,7 +1754,9 @@
       <c r="I34" t="n">
         <v>10753000</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1658,10 +1790,14 @@
         <v>115.1927438</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10771000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1695,10 +1831,14 @@
         <v>124.94804346</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10771000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1735,7 +1875,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,7 +1914,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1809,7 +1953,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,7 +1992,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1880,10 +2028,14 @@
         <v>122.3995916</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10792000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1920,7 +2072,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1957,7 +2111,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1994,7 +2150,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2031,7 +2189,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,7 +2228,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2105,7 +2267,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,7 +2306,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,10 +2342,14 @@
         <v>80.84320501000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10766000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2218,7 +2388,9 @@
       <c r="I50" t="n">
         <v>10771000</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,10 +2424,14 @@
         <v>86.94867892000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10770000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2289,10 +2465,14 @@
         <v>82.67906068000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10787000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2326,10 +2506,14 @@
         <v>89.11855366000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10783000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,10 +2547,14 @@
         <v>92.82565366000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10790000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,10 +2588,14 @@
         <v>84.87275366000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10797000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2437,10 +2629,14 @@
         <v>80.39615366000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10790000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2474,10 +2670,14 @@
         <v>89.59755366000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10788000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,10 +2711,14 @@
         <v>93.65845366000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10796000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,10 +2752,14 @@
         <v>89.84732683000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10800000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2585,10 +2793,14 @@
         <v>93.39252683000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10786000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,10 +2834,14 @@
         <v>96.54512683000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10798000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2659,10 +2875,14 @@
         <v>100.79841285</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10803000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,10 +2916,14 @@
         <v>113.55642683</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10808000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2733,10 +2957,14 @@
         <v>98.83414779000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10815000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2770,10 +2998,14 @@
         <v>112.70671154</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10803000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2807,10 +3039,14 @@
         <v>154.84626329</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10823000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,10 +3080,14 @@
         <v>154.84626329</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10840000</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,10 +3121,14 @@
         <v>151.24376336</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10840000</v>
+      </c>
+      <c r="J68" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,10 +3162,14 @@
         <v>144.87463941</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10824000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,7 +3206,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2995,7 +3245,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,7 +3284,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3069,7 +3323,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,7 +3362,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3143,7 +3401,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3180,7 +3440,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3217,7 +3479,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,7 +3518,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3291,7 +3557,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3328,7 +3596,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3365,7 +3635,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,7 +3674,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3439,7 +3713,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3476,7 +3752,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,7 +3791,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,7 +3830,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3587,7 +3869,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,7 +3908,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,7 +3947,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,7 +3986,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,7 +4025,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,7 +4064,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,7 +4103,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3846,7 +4142,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,7 +4181,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3920,7 +4220,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3957,7 +4259,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,7 +4298,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>10777000</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,1269 +4334,1501 @@
         <v>577.4202789100001</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>10973000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>10942000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10978000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10937000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>31.874</v>
+      </c>
+      <c r="G100" t="n">
+        <v>545.5462789100001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10945000</v>
+      </c>
+      <c r="C101" t="n">
+        <v>10923000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10945000</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10917000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>52.5492</v>
+      </c>
+      <c r="G101" t="n">
+        <v>492.9970789100001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>10923000</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10903000</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10925000</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10896000</v>
+      </c>
+      <c r="F102" t="n">
+        <v>32.56194789</v>
+      </c>
+      <c r="G102" t="n">
+        <v>460.4351310200001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10903000</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10922000</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10928000</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10896000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>28.65702663</v>
+      </c>
+      <c r="G103" t="n">
+        <v>489.0921576500001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10922000</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10933000</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10944000</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10922000</v>
+      </c>
+      <c r="F104" t="n">
+        <v>28.33716408</v>
+      </c>
+      <c r="G104" t="n">
+        <v>517.4293217300001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>10932000</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10939000</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10943000</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10928000</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10.70544782</v>
+      </c>
+      <c r="G105" t="n">
+        <v>528.1347695500001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10943000</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10960000</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10960000</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10940000</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12.38931534</v>
+      </c>
+      <c r="G106" t="n">
+        <v>540.5240848900002</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>10959000</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10942000</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10959000</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10942000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>20.4961</v>
+      </c>
+      <c r="G107" t="n">
+        <v>520.0279848900002</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>10942000</v>
+      </c>
+      <c r="C108" t="n">
+        <v>10950000</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10952000</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10940000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>30.18172301</v>
+      </c>
+      <c r="G108" t="n">
+        <v>550.2097079000002</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>10950000</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10958000</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10966000</v>
+      </c>
+      <c r="E109" t="n">
+        <v>10950000</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21.96540038</v>
+      </c>
+      <c r="G109" t="n">
+        <v>572.1751082800002</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>10958000</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10966000</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10982000</v>
+      </c>
+      <c r="E110" t="n">
+        <v>10957000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>16.51966033</v>
+      </c>
+      <c r="G110" t="n">
+        <v>588.6947686100002</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>10967000</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10989000</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10991000</v>
+      </c>
+      <c r="E111" t="n">
+        <v>10966000</v>
+      </c>
+      <c r="F111" t="n">
+        <v>27.03109754</v>
+      </c>
+      <c r="G111" t="n">
+        <v>615.7258661500002</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>10989000</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11005000</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11011000</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10988000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>70.01596302</v>
+      </c>
+      <c r="G112" t="n">
+        <v>685.7418291700002</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11003000</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11002000</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11007000</v>
+      </c>
+      <c r="E113" t="n">
+        <v>10994000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>27.06473011</v>
+      </c>
+      <c r="G113" t="n">
+        <v>658.6770990600002</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>10998000</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11029000</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11029000</v>
+      </c>
+      <c r="E114" t="n">
+        <v>10995000</v>
+      </c>
+      <c r="F114" t="n">
+        <v>33.62901109</v>
+      </c>
+      <c r="G114" t="n">
+        <v>692.3061101500001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11029000</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11070000</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11070000</v>
+      </c>
+      <c r="E115" t="n">
+        <v>11021000</v>
+      </c>
+      <c r="F115" t="n">
+        <v>44.80747851</v>
+      </c>
+      <c r="G115" t="n">
+        <v>737.1135886600001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11070000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11103000</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11103000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11058000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>75.36021967000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>812.4738083300001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11103000</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11114000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11115000</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11092000</v>
+      </c>
+      <c r="F117" t="n">
+        <v>72.91255596000001</v>
+      </c>
+      <c r="G117" t="n">
+        <v>885.3863642900001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11112000</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11070000</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11116000</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11056000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>50.42117856</v>
+      </c>
+      <c r="G118" t="n">
+        <v>834.96518573</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11069000</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11039000</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11070000</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11025000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>56.5538928</v>
+      </c>
+      <c r="G119" t="n">
+        <v>778.4112929300001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11027000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11024000</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11039000</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11010000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>70.19770751</v>
+      </c>
+      <c r="G120" t="n">
+        <v>708.2135854200001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11024000</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11010000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11024000</v>
+      </c>
+      <c r="E121" t="n">
+        <v>11002000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>22.26789714</v>
+      </c>
+      <c r="G121" t="n">
+        <v>685.9456882800001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11010000</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11045000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11062000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11003000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>46.95162055</v>
+      </c>
+      <c r="G122" t="n">
+        <v>732.8973088300002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11050000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11054000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11061000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11045000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30.9556</v>
+      </c>
+      <c r="G123" t="n">
+        <v>763.8529088300002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11059000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11038000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11059000</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11025000</v>
+      </c>
+      <c r="F124" t="n">
+        <v>26.34080555</v>
+      </c>
+      <c r="G124" t="n">
+        <v>737.5121032800001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11038000</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11040000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11040000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11029000</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.809100000000001</v>
+      </c>
+      <c r="G125" t="n">
+        <v>746.3212032800002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11043000</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11068000</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11072000</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11040000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>21.59842652</v>
+      </c>
+      <c r="G126" t="n">
+        <v>767.9196298000002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11064000</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11103000</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11103000</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11064000</v>
+      </c>
+      <c r="F127" t="n">
+        <v>48.00089345</v>
+      </c>
+      <c r="G127" t="n">
+        <v>815.9205232500002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11103000</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11144000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11173000</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11103000</v>
+      </c>
+      <c r="F128" t="n">
+        <v>63.39572316</v>
+      </c>
+      <c r="G128" t="n">
+        <v>879.3162464100002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11140000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11177000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11199000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>11140000</v>
+      </c>
+      <c r="F129" t="n">
+        <v>106.04598356</v>
+      </c>
+      <c r="G129" t="n">
+        <v>985.3622299700002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11177000</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11147000</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11188000</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11136000</v>
+      </c>
+      <c r="F130" t="n">
+        <v>45.2382828</v>
+      </c>
+      <c r="G130" t="n">
+        <v>940.1239471700002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11147000</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11197000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11231000</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11138000</v>
+      </c>
+      <c r="F131" t="n">
+        <v>129.78840916</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1069.91235633</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11197000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11215000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11232000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11197000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>65.25807838999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1135.17043472</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11215000</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11190000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11216000</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11175000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>51.41711688</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1083.75331784</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11190000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11172000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11200000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11150000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>70.39984921</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1013.35346863</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11172000</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11213000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11213000</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11165000</v>
+      </c>
+      <c r="F135" t="n">
+        <v>64.55523511</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1077.90870374</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11213000</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11202000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11230000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11189000</v>
+      </c>
+      <c r="F136" t="n">
+        <v>55.14238512</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1022.76631862</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11199000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11162000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11205000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11158000</v>
+      </c>
+      <c r="F137" t="n">
+        <v>73.03061975</v>
+      </c>
+      <c r="G137" t="n">
+        <v>949.7356988700002</v>
+      </c>
+      <c r="H137" t="n">
         <v>2</v>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10777000</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>10973000</v>
-      </c>
-      <c r="C100" t="n">
-        <v>10942000</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10978000</v>
-      </c>
-      <c r="E100" t="n">
-        <v>10937000</v>
-      </c>
-      <c r="F100" t="n">
-        <v>31.874</v>
-      </c>
-      <c r="G100" t="n">
-        <v>545.5462789100001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>10945000</v>
-      </c>
-      <c r="C101" t="n">
-        <v>10923000</v>
-      </c>
-      <c r="D101" t="n">
-        <v>10945000</v>
-      </c>
-      <c r="E101" t="n">
-        <v>10917000</v>
-      </c>
-      <c r="F101" t="n">
-        <v>52.5492</v>
-      </c>
-      <c r="G101" t="n">
-        <v>492.9970789100001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>10923000</v>
-      </c>
-      <c r="C102" t="n">
-        <v>10903000</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10925000</v>
-      </c>
-      <c r="E102" t="n">
-        <v>10896000</v>
-      </c>
-      <c r="F102" t="n">
-        <v>32.56194789</v>
-      </c>
-      <c r="G102" t="n">
-        <v>460.4351310200001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>10903000</v>
-      </c>
-      <c r="C103" t="n">
-        <v>10922000</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10928000</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10896000</v>
-      </c>
-      <c r="F103" t="n">
-        <v>28.65702663</v>
-      </c>
-      <c r="G103" t="n">
-        <v>489.0921576500001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>10922000</v>
-      </c>
-      <c r="C104" t="n">
-        <v>10933000</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10944000</v>
-      </c>
-      <c r="E104" t="n">
-        <v>10922000</v>
-      </c>
-      <c r="F104" t="n">
-        <v>28.33716408</v>
-      </c>
-      <c r="G104" t="n">
-        <v>517.4293217300001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>10932000</v>
-      </c>
-      <c r="C105" t="n">
-        <v>10939000</v>
-      </c>
-      <c r="D105" t="n">
-        <v>10943000</v>
-      </c>
-      <c r="E105" t="n">
-        <v>10928000</v>
-      </c>
-      <c r="F105" t="n">
-        <v>10.70544782</v>
-      </c>
-      <c r="G105" t="n">
-        <v>528.1347695500001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>10943000</v>
-      </c>
-      <c r="C106" t="n">
-        <v>10960000</v>
-      </c>
-      <c r="D106" t="n">
-        <v>10960000</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10940000</v>
-      </c>
-      <c r="F106" t="n">
-        <v>12.38931534</v>
-      </c>
-      <c r="G106" t="n">
-        <v>540.5240848900002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>10959000</v>
-      </c>
-      <c r="C107" t="n">
-        <v>10942000</v>
-      </c>
-      <c r="D107" t="n">
-        <v>10959000</v>
-      </c>
-      <c r="E107" t="n">
-        <v>10942000</v>
-      </c>
-      <c r="F107" t="n">
-        <v>20.4961</v>
-      </c>
-      <c r="G107" t="n">
-        <v>520.0279848900002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>10942000</v>
-      </c>
-      <c r="C108" t="n">
-        <v>10950000</v>
-      </c>
-      <c r="D108" t="n">
-        <v>10952000</v>
-      </c>
-      <c r="E108" t="n">
-        <v>10940000</v>
-      </c>
-      <c r="F108" t="n">
-        <v>30.18172301</v>
-      </c>
-      <c r="G108" t="n">
-        <v>550.2097079000002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>10950000</v>
-      </c>
-      <c r="C109" t="n">
-        <v>10958000</v>
-      </c>
-      <c r="D109" t="n">
-        <v>10966000</v>
-      </c>
-      <c r="E109" t="n">
-        <v>10950000</v>
-      </c>
-      <c r="F109" t="n">
-        <v>21.96540038</v>
-      </c>
-      <c r="G109" t="n">
-        <v>572.1751082800002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>10958000</v>
-      </c>
-      <c r="C110" t="n">
-        <v>10966000</v>
-      </c>
-      <c r="D110" t="n">
-        <v>10982000</v>
-      </c>
-      <c r="E110" t="n">
-        <v>10957000</v>
-      </c>
-      <c r="F110" t="n">
-        <v>16.51966033</v>
-      </c>
-      <c r="G110" t="n">
-        <v>588.6947686100002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>10967000</v>
-      </c>
-      <c r="C111" t="n">
-        <v>10989000</v>
-      </c>
-      <c r="D111" t="n">
-        <v>10991000</v>
-      </c>
-      <c r="E111" t="n">
-        <v>10966000</v>
-      </c>
-      <c r="F111" t="n">
-        <v>27.03109754</v>
-      </c>
-      <c r="G111" t="n">
-        <v>615.7258661500002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>10989000</v>
-      </c>
-      <c r="C112" t="n">
-        <v>11005000</v>
-      </c>
-      <c r="D112" t="n">
-        <v>11011000</v>
-      </c>
-      <c r="E112" t="n">
-        <v>10988000</v>
-      </c>
-      <c r="F112" t="n">
-        <v>70.01596302</v>
-      </c>
-      <c r="G112" t="n">
-        <v>685.7418291700002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>11003000</v>
-      </c>
-      <c r="C113" t="n">
-        <v>11002000</v>
-      </c>
-      <c r="D113" t="n">
-        <v>11007000</v>
-      </c>
-      <c r="E113" t="n">
-        <v>10994000</v>
-      </c>
-      <c r="F113" t="n">
-        <v>27.06473011</v>
-      </c>
-      <c r="G113" t="n">
-        <v>658.6770990600002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>10998000</v>
-      </c>
-      <c r="C114" t="n">
-        <v>11029000</v>
-      </c>
-      <c r="D114" t="n">
-        <v>11029000</v>
-      </c>
-      <c r="E114" t="n">
-        <v>10995000</v>
-      </c>
-      <c r="F114" t="n">
-        <v>33.62901109</v>
-      </c>
-      <c r="G114" t="n">
-        <v>692.3061101500001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>11029000</v>
-      </c>
-      <c r="C115" t="n">
-        <v>11070000</v>
-      </c>
-      <c r="D115" t="n">
-        <v>11070000</v>
-      </c>
-      <c r="E115" t="n">
-        <v>11021000</v>
-      </c>
-      <c r="F115" t="n">
-        <v>44.80747851</v>
-      </c>
-      <c r="G115" t="n">
-        <v>737.1135886600001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>11070000</v>
-      </c>
-      <c r="C116" t="n">
-        <v>11103000</v>
-      </c>
-      <c r="D116" t="n">
-        <v>11103000</v>
-      </c>
-      <c r="E116" t="n">
-        <v>11058000</v>
-      </c>
-      <c r="F116" t="n">
-        <v>75.36021967000001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>812.4738083300001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>11103000</v>
-      </c>
-      <c r="C117" t="n">
-        <v>11114000</v>
-      </c>
-      <c r="D117" t="n">
-        <v>11115000</v>
-      </c>
-      <c r="E117" t="n">
-        <v>11092000</v>
-      </c>
-      <c r="F117" t="n">
-        <v>72.91255596000001</v>
-      </c>
-      <c r="G117" t="n">
-        <v>885.3863642900001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>11112000</v>
-      </c>
-      <c r="C118" t="n">
-        <v>11070000</v>
-      </c>
-      <c r="D118" t="n">
-        <v>11116000</v>
-      </c>
-      <c r="E118" t="n">
-        <v>11056000</v>
-      </c>
-      <c r="F118" t="n">
-        <v>50.42117856</v>
-      </c>
-      <c r="G118" t="n">
-        <v>834.96518573</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>11069000</v>
-      </c>
-      <c r="C119" t="n">
-        <v>11039000</v>
-      </c>
-      <c r="D119" t="n">
-        <v>11070000</v>
-      </c>
-      <c r="E119" t="n">
-        <v>11025000</v>
-      </c>
-      <c r="F119" t="n">
-        <v>56.5538928</v>
-      </c>
-      <c r="G119" t="n">
-        <v>778.4112929300001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>11027000</v>
-      </c>
-      <c r="C120" t="n">
-        <v>11024000</v>
-      </c>
-      <c r="D120" t="n">
-        <v>11039000</v>
-      </c>
-      <c r="E120" t="n">
-        <v>11010000</v>
-      </c>
-      <c r="F120" t="n">
-        <v>70.19770751</v>
-      </c>
-      <c r="G120" t="n">
-        <v>708.2135854200001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>11024000</v>
-      </c>
-      <c r="C121" t="n">
-        <v>11010000</v>
-      </c>
-      <c r="D121" t="n">
-        <v>11024000</v>
-      </c>
-      <c r="E121" t="n">
-        <v>11002000</v>
-      </c>
-      <c r="F121" t="n">
-        <v>22.26789714</v>
-      </c>
-      <c r="G121" t="n">
-        <v>685.9456882800001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>11010000</v>
-      </c>
-      <c r="C122" t="n">
-        <v>11045000</v>
-      </c>
-      <c r="D122" t="n">
-        <v>11062000</v>
-      </c>
-      <c r="E122" t="n">
-        <v>11003000</v>
-      </c>
-      <c r="F122" t="n">
-        <v>46.95162055</v>
-      </c>
-      <c r="G122" t="n">
-        <v>732.8973088300002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>11050000</v>
-      </c>
-      <c r="C123" t="n">
-        <v>11054000</v>
-      </c>
-      <c r="D123" t="n">
-        <v>11061000</v>
-      </c>
-      <c r="E123" t="n">
-        <v>11045000</v>
-      </c>
-      <c r="F123" t="n">
-        <v>30.9556</v>
-      </c>
-      <c r="G123" t="n">
-        <v>763.8529088300002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>11059000</v>
-      </c>
-      <c r="C124" t="n">
-        <v>11038000</v>
-      </c>
-      <c r="D124" t="n">
-        <v>11059000</v>
-      </c>
-      <c r="E124" t="n">
-        <v>11025000</v>
-      </c>
-      <c r="F124" t="n">
-        <v>26.34080555</v>
-      </c>
-      <c r="G124" t="n">
-        <v>737.5121032800001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>11038000</v>
-      </c>
-      <c r="C125" t="n">
-        <v>11040000</v>
-      </c>
-      <c r="D125" t="n">
-        <v>11040000</v>
-      </c>
-      <c r="E125" t="n">
-        <v>11029000</v>
-      </c>
-      <c r="F125" t="n">
-        <v>8.809100000000001</v>
-      </c>
-      <c r="G125" t="n">
-        <v>746.3212032800002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>11043000</v>
-      </c>
-      <c r="C126" t="n">
-        <v>11068000</v>
-      </c>
-      <c r="D126" t="n">
-        <v>11072000</v>
-      </c>
-      <c r="E126" t="n">
-        <v>11040000</v>
-      </c>
-      <c r="F126" t="n">
-        <v>21.59842652</v>
-      </c>
-      <c r="G126" t="n">
-        <v>767.9196298000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>11064000</v>
-      </c>
-      <c r="C127" t="n">
-        <v>11103000</v>
-      </c>
-      <c r="D127" t="n">
-        <v>11103000</v>
-      </c>
-      <c r="E127" t="n">
-        <v>11064000</v>
-      </c>
-      <c r="F127" t="n">
-        <v>48.00089345</v>
-      </c>
-      <c r="G127" t="n">
-        <v>815.9205232500002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>11103000</v>
-      </c>
-      <c r="C128" t="n">
-        <v>11144000</v>
-      </c>
-      <c r="D128" t="n">
-        <v>11173000</v>
-      </c>
-      <c r="E128" t="n">
-        <v>11103000</v>
-      </c>
-      <c r="F128" t="n">
-        <v>63.39572316</v>
-      </c>
-      <c r="G128" t="n">
-        <v>879.3162464100002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>11140000</v>
-      </c>
-      <c r="C129" t="n">
-        <v>11177000</v>
-      </c>
-      <c r="D129" t="n">
-        <v>11199000</v>
-      </c>
-      <c r="E129" t="n">
-        <v>11140000</v>
-      </c>
-      <c r="F129" t="n">
-        <v>106.04598356</v>
-      </c>
-      <c r="G129" t="n">
-        <v>985.3622299700002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>11177000</v>
-      </c>
-      <c r="C130" t="n">
-        <v>11147000</v>
-      </c>
-      <c r="D130" t="n">
-        <v>11188000</v>
-      </c>
-      <c r="E130" t="n">
-        <v>11136000</v>
-      </c>
-      <c r="F130" t="n">
-        <v>45.2382828</v>
-      </c>
-      <c r="G130" t="n">
-        <v>940.1239471700002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>11147000</v>
-      </c>
-      <c r="C131" t="n">
-        <v>11197000</v>
-      </c>
-      <c r="D131" t="n">
-        <v>11231000</v>
-      </c>
-      <c r="E131" t="n">
-        <v>11138000</v>
-      </c>
-      <c r="F131" t="n">
-        <v>129.78840916</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1069.91235633</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>11197000</v>
-      </c>
-      <c r="C132" t="n">
-        <v>11215000</v>
-      </c>
-      <c r="D132" t="n">
-        <v>11232000</v>
-      </c>
-      <c r="E132" t="n">
-        <v>11197000</v>
-      </c>
-      <c r="F132" t="n">
-        <v>65.25807838999999</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1135.17043472</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>11215000</v>
-      </c>
-      <c r="C133" t="n">
-        <v>11190000</v>
-      </c>
-      <c r="D133" t="n">
-        <v>11216000</v>
-      </c>
-      <c r="E133" t="n">
-        <v>11175000</v>
-      </c>
-      <c r="F133" t="n">
-        <v>51.41711688</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1083.75331784</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>11190000</v>
-      </c>
-      <c r="C134" t="n">
-        <v>11172000</v>
-      </c>
-      <c r="D134" t="n">
-        <v>11200000</v>
-      </c>
-      <c r="E134" t="n">
-        <v>11150000</v>
-      </c>
-      <c r="F134" t="n">
-        <v>70.39984921</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1013.35346863</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>11172000</v>
-      </c>
-      <c r="C135" t="n">
-        <v>11213000</v>
-      </c>
-      <c r="D135" t="n">
-        <v>11213000</v>
-      </c>
-      <c r="E135" t="n">
-        <v>11165000</v>
-      </c>
-      <c r="F135" t="n">
-        <v>64.55523511</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1077.90870374</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>11213000</v>
-      </c>
-      <c r="C136" t="n">
-        <v>11202000</v>
-      </c>
-      <c r="D136" t="n">
-        <v>11230000</v>
-      </c>
-      <c r="E136" t="n">
-        <v>11189000</v>
-      </c>
-      <c r="F136" t="n">
-        <v>55.14238512</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1022.76631862</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>11199000</v>
-      </c>
-      <c r="C137" t="n">
-        <v>11162000</v>
-      </c>
-      <c r="D137" t="n">
-        <v>11205000</v>
-      </c>
-      <c r="E137" t="n">
-        <v>11158000</v>
-      </c>
-      <c r="F137" t="n">
-        <v>73.03061975</v>
-      </c>
-      <c r="G137" t="n">
-        <v>949.7356988700002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>1.030724227521574</v>
       </c>
       <c r="M137" t="inlineStr"/>
     </row>
@@ -5383,7 +5921,7 @@
         <v>973.7340219700003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5449,7 +5987,7 @@
         <v>872.0028682200002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5482,7 +6020,7 @@
         <v>829.4528144700002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5515,7 +6053,7 @@
         <v>719.6222308300003</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5548,7 +6086,7 @@
         <v>748.6621468200003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5845,7 +6383,7 @@
         <v>823.4475195000002</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5878,7 +6416,7 @@
         <v>793.3084195000002</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5911,7 +6449,7 @@
         <v>748.8045195000002</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5944,7 +6482,7 @@
         <v>866.9309847700002</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5977,7 +6515,7 @@
         <v>832.0955125700002</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6010,7 +6548,7 @@
         <v>770.6126190700002</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -9838,7 +10376,7 @@
         <v>810.5182333399998</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9871,7 +10409,7 @@
         <v>795.0417998299998</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9904,7 +10442,7 @@
         <v>843.4359355299998</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9937,7 +10475,7 @@
         <v>855.6208668599999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9970,7 +10508,7 @@
         <v>847.5373668599999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10003,7 +10541,7 @@
         <v>839.8900668599999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -15745,7 +16283,7 @@
         <v>1031.34370069</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -23368,7 +23906,7 @@
         <v>1122.681238040001</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23632,7 +24170,7 @@
         <v>1112.048593790001</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -32839,7 +33377,7 @@
         <v>1322.936086430003</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32872,7 +33410,7 @@
         <v>1295.948886430003</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32905,7 +33443,7 @@
         <v>1252.341286430003</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32938,7 +33476,7 @@
         <v>1263.123186430003</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33037,7 +33575,7 @@
         <v>1316.126825020003</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33070,7 +33608,7 @@
         <v>1421.514701710003</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33103,7 +33641,7 @@
         <v>1382.725059720002</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33136,7 +33674,7 @@
         <v>1409.336859720002</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33169,7 +33707,7 @@
         <v>1453.085045040002</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33202,7 +33740,7 @@
         <v>1412.691359290002</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33235,7 +33773,7 @@
         <v>1396.932262630002</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33268,7 +33806,7 @@
         <v>1379.870262630002</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33301,7 +33839,7 @@
         <v>1345.239517630002</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33334,7 +33872,7 @@
         <v>1370.605129100002</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33367,7 +33905,7 @@
         <v>1403.260329100002</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33400,7 +33938,7 @@
         <v>1379.761657140002</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33433,7 +33971,7 @@
         <v>1388.823757140002</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33466,7 +34004,7 @@
         <v>1397.742957140003</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33499,7 +34037,7 @@
         <v>1416.627612620003</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33532,7 +34070,7 @@
         <v>1416.627612620003</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33565,7 +34103,7 @@
         <v>1407.631576720003</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33598,7 +34136,7 @@
         <v>1379.279534590003</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33631,7 +34169,7 @@
         <v>1372.980135640003</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33664,7 +34202,7 @@
         <v>1324.473749210003</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33697,7 +34235,7 @@
         <v>1350.787349210003</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33730,7 +34268,7 @@
         <v>1340.487821650003</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33763,7 +34301,7 @@
         <v>1280.422721650003</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33796,7 +34334,7 @@
         <v>1226.917055150003</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33829,7 +34367,7 @@
         <v>1195.682555150003</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33862,7 +34400,7 @@
         <v>1175.452882060003</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33895,7 +34433,7 @@
         <v>1168.805736720003</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33928,7 +34466,7 @@
         <v>1177.597436720003</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33994,7 +34532,7 @@
         <v>1192.759336720002</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34027,7 +34565,7 @@
         <v>1177.159574400002</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34060,7 +34598,7 @@
         <v>1171.560251480002</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34093,7 +34631,7 @@
         <v>1171.560251480002</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34126,7 +34664,7 @@
         <v>1161.128751480002</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -34159,7 +34697,7 @@
         <v>1157.330421860002</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34225,7 +34763,7 @@
         <v>1075.552421860002</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36007,7 +36545,7 @@
         <v>1205.411652350002</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -36040,7 +36578,7 @@
         <v>1203.147752350002</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -36106,7 +36644,7 @@
         <v>1202.729807100002</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
